--- a/annualBofA.xlsx
+++ b/annualBofA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansa1\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asarantsev\Documents\annual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E785A6C-FA20-4C79-BD63-9BBCED24444F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AF187F-B2D3-498F-B745-358EF9969F5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>BAMLCC0A1AAATRIV</t>
   </si>
@@ -152,6 +152,21 @@
   </si>
   <si>
     <t>Market Yield on U.S. Treasury Securities at 10-Year Constant Maturity, Quoted on an Investment Basis, Percent, Annual, Not Seasonally Adjusted</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>BAMLCC0A0CMTRIV</t>
+  </si>
+  <si>
+    <t>ICE BofA US Corporate Index Total Return Index Value, Index, Annual, Not Seasonally Adjusted</t>
+  </si>
+  <si>
+    <t>BAMLC0A0CMEY</t>
+  </si>
+  <si>
+    <t>ICE BofA US Corporate Index Effective Yield, Percent, Annual, Not Seasonally Adjusted</t>
   </si>
 </sst>
 </file>
@@ -161,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +218,20 @@
       <charset val="204"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -239,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -269,6 +298,18 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -287,9 +328,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -327,9 +368,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,9 +403,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,9 +455,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -573,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -593,212 +668,233 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
+      <c r="A2" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1996</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="11">
+        <v>847.54</v>
+      </c>
+      <c r="C2" s="2">
         <v>208.92</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>213.12</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>214.07</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>219.53</v>
-      </c>
-      <c r="F2" s="3">
-        <v>100</v>
       </c>
       <c r="G2" s="3">
         <v>100</v>
@@ -806,732 +902,819 @@
       <c r="H2" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1997</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="11">
+        <v>935.57</v>
+      </c>
+      <c r="C3" s="2">
         <v>230.97</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>235.29</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>235.26</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>244.1</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>112.58</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>112.86</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>115.33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1998</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="11">
+        <v>1017.16</v>
+      </c>
+      <c r="C4" s="2">
         <v>253.61</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>257.73</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>257.45</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>261.39999999999998</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>119.97</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>114.92</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>108.06</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1999</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="11">
+        <v>997.97</v>
+      </c>
+      <c r="C5" s="2">
         <v>244.6</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>252.24</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>251.38</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>259.23</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>122.31</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>118.44</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>109.66</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2000</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="11">
+        <v>1089.1300000000001</v>
+      </c>
+      <c r="C6" s="2">
         <v>274.27</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>280.62</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>275.33999999999997</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>278.76</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>125.03</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>109.32</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>90.56</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2001</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="11">
+        <v>1205.7</v>
+      </c>
+      <c r="C7" s="2">
         <v>300.08</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>310.64999999999998</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>305.58</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>307.98</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>138.86000000000001</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>110.28</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>89.71</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2002</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="11">
+        <v>1328.32</v>
+      </c>
+      <c r="C8" s="2">
         <v>338.45</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>348.91</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>344.18</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>329.94</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>134.41</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>111.31</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>84.15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2003</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="11">
+        <v>1438.7</v>
+      </c>
+      <c r="C9" s="2">
         <v>355.72</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>364.4</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>365.03</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>367.93</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>160.55000000000001</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>140.26</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>135.47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>2004</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="11">
+        <v>1516.6</v>
+      </c>
+      <c r="C10" s="2">
         <v>371.82</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>378.82</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>383.15</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>390.78</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>175.53</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>154.9</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>156.81</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2005</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="11">
+        <v>1546.51</v>
+      </c>
+      <c r="C11" s="2">
         <v>381.73</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>387.69</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>393.47</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>394.64</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>180.99</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>160.69</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>155.96</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2006</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="11">
+        <v>1614.19</v>
+      </c>
+      <c r="C12" s="2">
         <v>398.77</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>404.29</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>410.28</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>412.63</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>198.91</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>179.05</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>185.02</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>2007</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="11">
+        <v>1689.14</v>
+      </c>
+      <c r="C13" s="2">
         <v>427.84</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>424.9</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>427.67</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>430.86</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>203.28</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>184.55</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>185.7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>2008</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="11">
+        <v>1573.98</v>
+      </c>
+      <c r="C14" s="2">
         <v>447.98</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>423.66</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>395.19</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>383.23</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>164.26</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>132.84</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>114.57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>2009</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="11">
+        <v>1885</v>
+      </c>
+      <c r="C15" s="2">
         <v>445.05</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>462.4</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>458.12</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>503.66</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>238.53</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>196.12</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>225.46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2010</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="11">
+        <v>2064.4499999999998</v>
+      </c>
+      <c r="C16" s="2">
         <v>480.19</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>497.88</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>499.84</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>558.45000000000005</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>274.14</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>223.55</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>2011</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="11">
+        <v>2219.4499999999998</v>
+      </c>
+      <c r="C17" s="2">
         <v>523.94000000000005</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>529</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>536.77</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>603.82000000000005</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>290.91000000000003</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>233.94</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>263.27</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>2012</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="11">
+        <v>2449.56</v>
+      </c>
+      <c r="C18" s="2">
         <v>544.76</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>568.36</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>589.48</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>676.13</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>332.68</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>269.07</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>316.62</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>2013</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="11">
+        <v>2413.9</v>
+      </c>
+      <c r="C19" s="2">
         <v>521.5</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>557.48</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>578.77</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>669.69</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>349.96</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>289.16000000000003</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <v>357.66</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>2014</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="11">
+        <v>2595.2800000000002</v>
+      </c>
+      <c r="C20" s="2">
         <v>570.66999999999996</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2">
         <v>596.86</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>621.41</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>721.26</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>368.64</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>292.99</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>348.47</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>2015</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="11">
+        <v>2578.89</v>
+      </c>
+      <c r="C21" s="2">
         <v>573.92999999999995</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2">
         <v>601.97</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>625.24</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>705.45</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>364.81</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>278.33999999999997</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>296.14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>2016</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="11">
+        <v>2732.66</v>
+      </c>
+      <c r="C22" s="2">
         <v>592.16999999999996</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="2">
         <v>624.85</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>652.62</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>762.9</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>413.03</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>325.49</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>404.1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>2017</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="11">
+        <v>2909.64</v>
+      </c>
+      <c r="C23" s="2">
         <v>636.96</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>655.12</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>690.59</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>819</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>442.61</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>347.48</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>446.9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>2018</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="11">
+        <v>2844.18</v>
+      </c>
+      <c r="C24" s="2">
         <v>624.9</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="2">
         <v>651.6</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>677.21</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>795.93</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>431.71</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>342.13</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>428.36</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>2019</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="11">
+        <v>3249.02</v>
+      </c>
+      <c r="C25" s="2">
         <v>714.5</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="2">
         <v>721.83</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>764.75</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>922.53</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>499.62</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <v>391.26</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <v>467.37</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>2020</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="11">
+        <v>3567.63</v>
+      </c>
+      <c r="C26" s="2">
         <v>801.95</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
         <v>790.2</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>839.77</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1012.56</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>542.66999999999996</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>405.58</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>480.72</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>2021</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="11">
+        <v>3533.73</v>
+      </c>
+      <c r="C27" s="2">
         <v>782.85</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="2">
         <v>778.8</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>824.94</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1010.64</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>567.25</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>425.37</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>530.84</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>2022</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="11">
+        <v>2987.97</v>
+      </c>
+      <c r="C28" s="2">
         <v>634.54</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D28" s="2">
         <v>654.20000000000005</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>703.77</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="3">
         <v>850.35</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="3">
         <v>507.27</v>
       </c>
-      <c r="G28" s="3">
+      <c r="H28" s="3">
         <v>380.35</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="3">
         <v>444.18</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>2023</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="11">
+        <v>3238.89</v>
+      </c>
+      <c r="C29" s="2">
         <v>675.67</v>
       </c>
-      <c r="C29" s="2">
+      <c r="D29" s="2">
         <v>698.06</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>757.14</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>930.75</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>565.32000000000005</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>433.46</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>534.62</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>2024</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="11">
+        <v>3328.3</v>
+      </c>
+      <c r="C30" s="2">
         <v>670.48</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D30" s="2">
         <v>705.98</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>774.54</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="3">
         <v>963.79</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G30" s="3">
         <v>600.83000000000004</v>
       </c>
-      <c r="G30" s="3">
+      <c r="H30" s="3">
         <v>466.18</v>
       </c>
-      <c r="H30" s="3">
+      <c r="I30" s="3">
         <v>631.80999999999995</v>
       </c>
     </row>
@@ -1542,800 +1725,891 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C750D4-0CBD-42FC-9789-DD958E852D31}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1996</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="12">
+        <v>7.09</v>
+      </c>
+      <c r="C2" s="3">
         <v>6.72</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>6.82</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>6.97</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>7.26</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>8.36</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>10.01</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>13.97</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1997</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="12">
+        <v>6.56</v>
+      </c>
+      <c r="C3" s="3">
         <v>6.3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>6.35</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>6.51</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>6.8</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>7.5</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>9.4499999999999993</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>13.07</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1998</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="12">
+        <v>6.15</v>
+      </c>
+      <c r="C4" s="3">
         <v>5.6</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>5.67</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>5.97</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>6.7</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>8.07</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>10.79</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>18.03</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1999</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="12">
+        <v>7.7</v>
+      </c>
+      <c r="C5" s="3">
         <v>7.29</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>7.35</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>7.54</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>8.1</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>9.32</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>11.1</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>20.43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2000</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="12">
+        <v>7.31</v>
+      </c>
+      <c r="C6" s="3">
         <v>6.3</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>6.59</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>7.15</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>7.97</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>9.91</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>14.79</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>29.09</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2001</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="12">
+        <v>6.25</v>
+      </c>
+      <c r="C7" s="3">
         <v>5.04</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>5.18</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>6</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>6.99</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>9.0500000000000007</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>11.51</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>27.21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2002</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="12">
+        <v>5.08</v>
+      </c>
+      <c r="C8" s="3">
         <v>4.2300000000000004</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>3.73</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>4.5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9.24</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11.24</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2003</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="12">
+        <v>4.45</v>
+      </c>
+      <c r="C9" s="3">
         <v>4.04</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>3.61</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>4.13</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4.92</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6.05</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7.47</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11.64</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>2004</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="12">
+        <v>4.71</v>
+      </c>
+      <c r="C10" s="3">
         <v>4.29</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>4.2699999999999996</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>4.57</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5.07</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5.95</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6.8</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10.119999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2005</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="12">
+        <v>5.36</v>
+      </c>
+      <c r="C11" s="3">
         <v>5.05</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>5.07</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>5.28</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>5.66</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>7.41</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>7.8</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>11.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2006</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="12">
+        <v>5.68</v>
+      </c>
+      <c r="C12" s="3">
         <v>5.34</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>5.38</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>5.6</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5.98</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6.7</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7.59</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>2007</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="12">
+        <v>5.8</v>
+      </c>
+      <c r="C13" s="3">
         <v>4.88</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>5.35</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>5.74</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>6.28</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>8.27</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>9.2799999999999994</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>12.63</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>2008</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="12">
+        <v>7.83</v>
+      </c>
+      <c r="C14" s="3">
         <v>5.07</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <v>5.82</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>7.45</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9.67</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14.63</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>18.14</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>31.08</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>2009</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="12">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C15" s="3">
         <v>3.73</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>3.91</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>4.6900000000000004</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5.58</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>7.57</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8.59</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12.53</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2010</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="12">
+        <v>4.09</v>
+      </c>
+      <c r="C16" s="3">
         <v>2.9</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>3.18</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>3.93</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>4.72</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>6.37</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>7.68</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>10.66</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>2011</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="12">
+        <v>3.88</v>
+      </c>
+      <c r="C17" s="3">
         <v>2.0699999999999998</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>2.86</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>3.62</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4.55</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6.27</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8.2899999999999991</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14.22</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>2012</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="12">
+        <v>2.77</v>
+      </c>
+      <c r="C18" s="3">
         <v>2</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E18" s="3">
         <v>2.41</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3.33</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4.8099999999999996</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6.11</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10.48</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>2013</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="12">
+        <v>3.35</v>
+      </c>
+      <c r="C19" s="3">
         <v>2.94</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>2.58</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="3">
         <v>2.94</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>3.94</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>4.75</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>5.8</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <v>9.2200000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>2014</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="12">
+        <v>3.21</v>
+      </c>
+      <c r="C20" s="3">
         <v>2.5</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>2.52</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3">
         <v>2.8</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3.81</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5.03</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7.01</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>11.24</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>2015</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="12">
+        <v>3.68</v>
+      </c>
+      <c r="C21" s="3">
         <v>2.86</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>2.82</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
         <v>3.16</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4.42</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6.09</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8.9600000000000009</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>2016</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="12">
+        <v>3.39</v>
+      </c>
+      <c r="C22" s="3">
         <v>3.05</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="3">
         <v>2.76</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <v>3.11</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3.8</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4.72</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6.09</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>11.49</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>2017</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="12">
+        <v>3.27</v>
+      </c>
+      <c r="C23" s="3">
         <v>2.95</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
         <v>2.78</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>3.04</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3.59</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4.42</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5.9</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10.53</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>2018</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="12">
+        <v>4.25</v>
+      </c>
+      <c r="C24" s="3">
         <v>3.53</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="3">
         <v>3.51</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
         <v>3.9</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4.6900000000000004</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6.18</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8.2799999999999994</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>13.55</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>2019</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="C25" s="3">
         <v>2.5499999999999998</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="3">
         <v>2.4</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <v>2.65</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>3.19</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>3.77</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <v>5.28</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <v>11.78</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>2020</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="12">
+        <v>1.79</v>
+      </c>
+      <c r="C26" s="3">
         <v>1.55</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D26" s="3">
         <v>1.42</v>
       </c>
-      <c r="D26" s="3">
+      <c r="E26" s="3">
         <v>1.52</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2.06</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3.32</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4.5599999999999996</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8.36</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>2021</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="12">
+        <v>2.35</v>
+      </c>
+      <c r="C27" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="3">
         <v>2.02</v>
       </c>
-      <c r="D27" s="3">
+      <c r="E27" s="3">
         <v>2.11</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2.6</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3.4</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4.75</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7.96</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>2022</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="12">
+        <v>5.49</v>
+      </c>
+      <c r="C28" s="3">
         <v>4.67</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="3">
         <v>4.88</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E28" s="3">
         <v>5.28</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="3">
         <v>5.8</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="3">
         <v>7.14</v>
       </c>
-      <c r="G28" s="3">
+      <c r="H28" s="3">
         <v>9.2200000000000006</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="3">
         <v>15.76</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>2023</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="12">
+        <v>5.14</v>
+      </c>
+      <c r="C29" s="3">
         <v>4.5199999999999996</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="3">
         <v>4.67</v>
       </c>
-      <c r="D29" s="3">
+      <c r="E29" s="3">
         <v>5.01</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>5.36</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>6.04</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>7.4</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>13.05</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>2024</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="12">
+        <v>5.35</v>
+      </c>
+      <c r="C30" s="3">
         <v>4.92</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="3">
         <v>5.01</v>
       </c>
-      <c r="D30" s="3">
+      <c r="E30" s="3">
         <v>5.22</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="3">
         <v>5.55</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G30" s="3">
         <v>6.26</v>
       </c>
-      <c r="G30" s="3">
+      <c r="H30" s="3">
         <v>7.33</v>
       </c>
-      <c r="H30" s="3">
+      <c r="I30" s="3">
         <v>11.78</v>
       </c>
     </row>
@@ -2348,7 +2622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C10C4AE-9419-44C8-9986-7EE14E9C021E}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
